--- a/data/trans_orig/P0901-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P0901-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>37863</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>25715</v>
+        <v>26928</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>50771</v>
+        <v>51607</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07991768693947841</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05427714304749268</v>
+        <v>0.05683719679928058</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1071617678971998</v>
+        <v>0.1089263915579899</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>38</v>
@@ -765,19 +765,19 @@
         <v>39679</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>28417</v>
+        <v>28929</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>52244</v>
+        <v>53444</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1293835784425308</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09265953797836347</v>
+        <v>0.09432942217280445</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1703522767151197</v>
+        <v>0.1742677842044582</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>74</v>
@@ -786,19 +786,19 @@
         <v>77543</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>60745</v>
+        <v>60177</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>94847</v>
+        <v>95269</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09935530115629393</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07783276577089555</v>
+        <v>0.0771042293292722</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1215276417343178</v>
+        <v>0.1220676598507829</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>435913</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>423005</v>
+        <v>422169</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>448061</v>
+        <v>446848</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9200823130605216</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8928382321028</v>
+        <v>0.8910736084420101</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9457228569525072</v>
+        <v>0.9431628032007193</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>260</v>
@@ -836,19 +836,19 @@
         <v>267001</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>254436</v>
+        <v>253236</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>278263</v>
+        <v>277751</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8706164215574692</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8296477232848805</v>
+        <v>0.8257322157955416</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9073404620216365</v>
+        <v>0.9056705778271953</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>679</v>
@@ -857,19 +857,19 @@
         <v>702914</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>685610</v>
+        <v>685188</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>719712</v>
+        <v>720280</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9006446988437061</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8784723582656824</v>
+        <v>0.8779323401492171</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9221672342291045</v>
+        <v>0.9228957706707277</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>19055</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11642</v>
+        <v>11604</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>30266</v>
+        <v>29182</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05192941509914835</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03172678761266712</v>
+        <v>0.03162298943460434</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08248422557557389</v>
+        <v>0.07952932948919023</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>36</v>
@@ -982,19 +982,19 @@
         <v>37137</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>26849</v>
+        <v>26522</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>50072</v>
+        <v>49631</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09986619376122298</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07220124838328307</v>
+        <v>0.07132053670183496</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1346516953356412</v>
+        <v>0.1334659618943947</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>54</v>
@@ -1003,19 +1003,19 @@
         <v>56191</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>42133</v>
+        <v>42782</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>70676</v>
+        <v>70930</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0760577688475179</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0570284119583245</v>
+        <v>0.05790809038969971</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09566318112664469</v>
+        <v>0.09600672864001507</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>347879</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>336668</v>
+        <v>337752</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>355292</v>
+        <v>355330</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9480705849008516</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9175157744244261</v>
+        <v>0.9204706705108098</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.968273212387333</v>
+        <v>0.9683770105653956</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>327</v>
@@ -1053,19 +1053,19 @@
         <v>334728</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>321793</v>
+        <v>322234</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>345016</v>
+        <v>345343</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.900133806238777</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8653483046643587</v>
+        <v>0.8665340381056053</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9277987516167169</v>
+        <v>0.9286794632981649</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>659</v>
@@ -1074,19 +1074,19 @@
         <v>682608</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>668123</v>
+        <v>667869</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>696666</v>
+        <v>696017</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9239422311524821</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9043368188733553</v>
+        <v>0.9039932713599849</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9429715880416755</v>
+        <v>0.9420919096103002</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>53055</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>40267</v>
+        <v>40840</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>66768</v>
+        <v>67408</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09781641785886785</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07423950827478133</v>
+        <v>0.0752969502959288</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1231003426935532</v>
+        <v>0.1242793692352389</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>35</v>
@@ -1199,19 +1199,19 @@
         <v>36641</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>25789</v>
+        <v>27099</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>47740</v>
+        <v>48463</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2183865479727589</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1537055514605823</v>
+        <v>0.1615122960255356</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2845342694041307</v>
+        <v>0.2888439237647414</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>90</v>
@@ -1220,19 +1220,19 @@
         <v>89696</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>72391</v>
+        <v>72840</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>108898</v>
+        <v>108513</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1263017916296574</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1019341719546304</v>
+        <v>0.1025662601241208</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1533404015950525</v>
+        <v>0.1527986348425286</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>489334</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>475621</v>
+        <v>474981</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>502122</v>
+        <v>501549</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9021835821411321</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8768996573064468</v>
+        <v>0.8757206307647611</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9257604917252187</v>
+        <v>0.9247030497040712</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>129</v>
@@ -1270,19 +1270,19 @@
         <v>131141</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>120042</v>
+        <v>119319</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>141993</v>
+        <v>140683</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7816134520272411</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7154657305958693</v>
+        <v>0.7111560762352587</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8462944485394177</v>
+        <v>0.8384877039744646</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>606</v>
@@ -1291,19 +1291,19 @@
         <v>620475</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>601273</v>
+        <v>601658</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>637780</v>
+        <v>637331</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8736982083703426</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8466595984049482</v>
+        <v>0.8472013651574715</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8980658280453696</v>
+        <v>0.8974337398758792</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>135791</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>115750</v>
+        <v>114838</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>159587</v>
+        <v>156534</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1096564718931541</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09347206745748818</v>
+        <v>0.09273584193219848</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1288723563159462</v>
+        <v>0.1264067199124421</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>104</v>
@@ -1416,19 +1416,19 @@
         <v>104920</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>87585</v>
+        <v>86755</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>124987</v>
+        <v>125536</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1468885480609157</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1226185206020785</v>
+        <v>0.1214566071802973</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1749824760514836</v>
+        <v>0.1757503996739355</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>243</v>
@@ -1437,19 +1437,19 @@
         <v>240712</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>213420</v>
+        <v>211118</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>269937</v>
+        <v>268520</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1232762901311642</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1092992293042428</v>
+        <v>0.1081201530656141</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1382434663089137</v>
+        <v>0.1375179022123046</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>1102543</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1078747</v>
+        <v>1081800</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1122584</v>
+        <v>1123496</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8903435281068459</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8711276436840537</v>
+        <v>0.873593280087558</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9065279325425116</v>
+        <v>0.9072641580678015</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>590</v>
@@ -1487,19 +1487,19 @@
         <v>609365</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>589298</v>
+        <v>588749</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>626700</v>
+        <v>627530</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8531114519390843</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8250175239485164</v>
+        <v>0.8242496003260644</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8773814793979215</v>
+        <v>0.8785433928197026</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1675</v>
@@ -1508,19 +1508,19 @@
         <v>1711908</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1682683</v>
+        <v>1684100</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1739200</v>
+        <v>1741502</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8767237098688357</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8617565336910864</v>
+        <v>0.8624820977876954</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8907007706957573</v>
+        <v>0.8918798469343859</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>40196</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>28519</v>
+        <v>29856</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>52372</v>
+        <v>54224</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1146635953847641</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08135503398524392</v>
+        <v>0.08516903826391205</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1493962518937861</v>
+        <v>0.1546805629278768</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>84</v>
@@ -1633,19 +1633,19 @@
         <v>88905</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>71602</v>
+        <v>73375</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>107661</v>
+        <v>107825</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1563162518683114</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1258938830356771</v>
+        <v>0.1290112934780505</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.189293482822131</v>
+        <v>0.1895813262004818</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>125</v>
@@ -1654,19 +1654,19 @@
         <v>129101</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>108813</v>
+        <v>108992</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>151611</v>
+        <v>150201</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1404330306259785</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1183644626665341</v>
+        <v>0.1185589693480881</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1649183142292314</v>
+        <v>0.163385234022611</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>310359</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>298183</v>
+        <v>296331</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>322036</v>
+        <v>320699</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8853364046152359</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.850603748106214</v>
+        <v>0.8453194370721225</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9186449660147561</v>
+        <v>0.9148309617360879</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>455</v>
@@ -1704,19 +1704,19 @@
         <v>479847</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>461091</v>
+        <v>460927</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>497150</v>
+        <v>495377</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8436837481316887</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8107065171778691</v>
+        <v>0.8104186737995182</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8741061169643229</v>
+        <v>0.8709887065219495</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>754</v>
@@ -1725,19 +1725,19 @@
         <v>790206</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>767696</v>
+        <v>769106</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>810494</v>
+        <v>810315</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8595669693740214</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8350816857707686</v>
+        <v>0.8366147659773894</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.881635537333466</v>
+        <v>0.881441030651912</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>9559</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4832</v>
+        <v>5103</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>16801</v>
+        <v>16421</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03205445819015788</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0162032755404951</v>
+        <v>0.01711414949815069</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05634046470697292</v>
+        <v>0.05506537818832133</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>232</v>
@@ -1850,19 +1850,19 @@
         <v>243777</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>216782</v>
+        <v>217577</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>271139</v>
+        <v>275425</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1952156333124441</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1735974889357996</v>
+        <v>0.1742347229125589</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2171267049774854</v>
+        <v>0.220559113623422</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>242</v>
@@ -1871,19 +1871,19 @@
         <v>253336</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>225274</v>
+        <v>225293</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>286483</v>
+        <v>283096</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1637637922041309</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1456237159140877</v>
+        <v>0.1456356541101402</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1851911069064787</v>
+        <v>0.183001417626321</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>288642</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>281400</v>
+        <v>281780</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>293369</v>
+        <v>293098</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9679455418098422</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9436595352930272</v>
+        <v>0.9449346218116786</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9837967244595049</v>
+        <v>0.9828858505018493</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1006</v>
@@ -1921,19 +1921,19 @@
         <v>1004983</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>977621</v>
+        <v>973335</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1031978</v>
+        <v>1031183</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8047843666875559</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7828732950225147</v>
+        <v>0.7794408863765779</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8264025110642005</v>
+        <v>0.8257652770874411</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1302</v>
@@ -1942,19 +1942,19 @@
         <v>1293624</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1260477</v>
+        <v>1263864</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1321686</v>
+        <v>1321667</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8362362077958692</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8148088930935212</v>
+        <v>0.8169985823736801</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8543762840859124</v>
+        <v>0.8543643458898604</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>295518</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>265563</v>
+        <v>263830</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>330314</v>
+        <v>330380</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.09036732677597055</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08120726890319346</v>
+        <v>0.08067741164699173</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1010076670471363</v>
+        <v>0.1010276921550513</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>529</v>
@@ -2067,19 +2067,19 @@
         <v>551060</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>511297</v>
+        <v>512862</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>593999</v>
+        <v>596795</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1631261482827198</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1513554203781784</v>
+        <v>0.151818534236418</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1758369060634419</v>
+        <v>0.1766645423234221</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>828</v>
@@ -2088,19 +2088,19 @@
         <v>846579</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>793968</v>
+        <v>795348</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>895881</v>
+        <v>905119</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1273373498416412</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1194239176287771</v>
+        <v>0.1196315993977451</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1347531329039926</v>
+        <v>0.1361426676031841</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>2974672</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2939876</v>
+        <v>2939810</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3004627</v>
+        <v>3006360</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9096326732240294</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8989923329528637</v>
+        <v>0.8989723078449485</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9187927310968065</v>
+        <v>0.9193225883530081</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2767</v>
@@ -2138,19 +2138,19 @@
         <v>2827064</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2784125</v>
+        <v>2781329</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2866827</v>
+        <v>2865262</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8368738517172802</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8241630939365582</v>
+        <v>0.823335457676578</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8486445796218216</v>
+        <v>0.8481814657635821</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5675</v>
@@ -2159,19 +2159,19 @@
         <v>5801735</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5752433</v>
+        <v>5743195</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5854346</v>
+        <v>5852966</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8726626501583589</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8652468670960073</v>
+        <v>0.8638573323968157</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8805760823712229</v>
+        <v>0.8803684006022549</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>26666</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>17518</v>
+        <v>17569</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>38517</v>
+        <v>37997</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06099152534021532</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04006711410464071</v>
+        <v>0.04018328588390718</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08809631173326009</v>
+        <v>0.08690812242687182</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>34</v>
@@ -2526,19 +2526,19 @@
         <v>37228</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>25691</v>
+        <v>26753</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>50513</v>
+        <v>51951</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1183893091248614</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08170121979932489</v>
+        <v>0.08507844692936775</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1606360435181607</v>
+        <v>0.1652116576099947</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>59</v>
@@ -2547,19 +2547,19 @@
         <v>63894</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>50328</v>
+        <v>49493</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>82730</v>
+        <v>81464</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08500352069217118</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06695571767433973</v>
+        <v>0.06584500375167372</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1100618746550279</v>
+        <v>0.1083785200771969</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>410545</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>398694</v>
+        <v>399214</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>419693</v>
+        <v>419642</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9390084746597847</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.91190368826674</v>
+        <v>0.9130918775731282</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9599328858953593</v>
+        <v>0.9598167141160928</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>249</v>
@@ -2597,19 +2597,19 @@
         <v>277226</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>263941</v>
+        <v>262503</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>288763</v>
+        <v>287701</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8816106908751385</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8393639564818394</v>
+        <v>0.8347883423900055</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9182987802006752</v>
+        <v>0.9149215530706323</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>628</v>
@@ -2618,19 +2618,19 @@
         <v>687771</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>668935</v>
+        <v>670201</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>701337</v>
+        <v>702172</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9149964793078288</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8899381253449722</v>
+        <v>0.8916214799228031</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9330442823256604</v>
+        <v>0.9341549962483264</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>49519</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>37374</v>
+        <v>36031</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>65720</v>
+        <v>64916</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1182400143130415</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08924179159623294</v>
+        <v>0.08603544094580061</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1569264802862172</v>
+        <v>0.1550050399875565</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>36</v>
@@ -2743,19 +2743,19 @@
         <v>40284</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>29595</v>
+        <v>28914</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>54035</v>
+        <v>55548</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1191803816487193</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08755656078819764</v>
+        <v>0.08554220314972</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1598618463319273</v>
+        <v>0.1643389850850227</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>80</v>
@@ -2764,19 +2764,19 @@
         <v>89803</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>72898</v>
+        <v>72459</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>109586</v>
+        <v>112732</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1186600079871528</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0963233478885646</v>
+        <v>0.0957429491274855</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1447996263105295</v>
+        <v>0.1489577205826851</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>369278</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>353077</v>
+        <v>353881</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>381423</v>
+        <v>382766</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8817599856869586</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8430735197137825</v>
+        <v>0.8449949600124435</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9107582084037671</v>
+        <v>0.9139645590541993</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>269</v>
@@ -2814,19 +2814,19 @@
         <v>297727</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>283976</v>
+        <v>282463</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>308416</v>
+        <v>309097</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8808196183512808</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8401381536680725</v>
+        <v>0.8356610149149772</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9124434392118022</v>
+        <v>0.9144577968502799</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>600</v>
@@ -2835,19 +2835,19 @@
         <v>667005</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>647222</v>
+        <v>644076</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>683910</v>
+        <v>684349</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8813399920128472</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8552003736894708</v>
+        <v>0.8510422794173149</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9036766521114357</v>
+        <v>0.9042570508725147</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>89399</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>71483</v>
+        <v>72330</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>110144</v>
+        <v>111247</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1420355027905568</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1135708916609877</v>
+        <v>0.1149169039033273</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1749946067768451</v>
+        <v>0.176746923050313</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>49</v>
@@ -2960,19 +2960,19 @@
         <v>53760</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>41540</v>
+        <v>40908</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>69552</v>
+        <v>67935</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2066669493659589</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1596892043392887</v>
+        <v>0.157262160290031</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2673749148279892</v>
+        <v>0.2611575824957519</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>127</v>
@@ -2981,19 +2981,19 @@
         <v>143159</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>121316</v>
+        <v>123612</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>169968</v>
+        <v>170009</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1609356770797031</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1363803550574567</v>
+        <v>0.1389608345712857</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1910726319152285</v>
+        <v>0.1911192129434837</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>540016</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>519271</v>
+        <v>518168</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>557932</v>
+        <v>557085</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8579644972094432</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8250053932231551</v>
+        <v>0.8232530769496872</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8864291083390125</v>
+        <v>0.8850830960966728</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>195</v>
@@ -3031,19 +3031,19 @@
         <v>206369</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>190577</v>
+        <v>192194</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>218589</v>
+        <v>219221</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7933330506340411</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7326250851720109</v>
+        <v>0.7388424175042481</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8403107956607113</v>
+        <v>0.8427378397099689</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>708</v>
@@ -3052,19 +3052,19 @@
         <v>746385</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>719576</v>
+        <v>719535</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>768228</v>
+        <v>765932</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8390643229202969</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8089273680847715</v>
+        <v>0.8088807870565162</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8636196449425433</v>
+        <v>0.8610391654287143</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>163258</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>139377</v>
+        <v>140722</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>189259</v>
+        <v>188644</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.140860097008729</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1202554350087415</v>
+        <v>0.1214156408705573</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1632938824460592</v>
+        <v>0.1627628692043872</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>110</v>
@@ -3177,19 +3177,19 @@
         <v>120058</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>100268</v>
+        <v>102252</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>141456</v>
+        <v>146063</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1565991352320244</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1307863521444157</v>
+        <v>0.13337355778091</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1845101704961495</v>
+        <v>0.1905191781531233</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>260</v>
@@ -3198,19 +3198,19 @@
         <v>283316</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>252490</v>
+        <v>252869</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>317205</v>
+        <v>314527</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1471262129672709</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1311181440612005</v>
+        <v>0.1313148459488389</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1647247813237651</v>
+        <v>0.1633343144947426</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>995751</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>969750</v>
+        <v>970365</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1019632</v>
+        <v>1018287</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.859139902991271</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8367061175539408</v>
+        <v>0.8372371307956127</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8797445649912583</v>
+        <v>0.8785843591294425</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>601</v>
@@ -3248,19 +3248,19 @@
         <v>646599</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>625201</v>
+        <v>620594</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>666389</v>
+        <v>664405</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8434008647679756</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8154898295038506</v>
+        <v>0.8094808218468768</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8692136478555843</v>
+        <v>0.8666264422190901</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1534</v>
@@ -3269,19 +3269,19 @@
         <v>1642351</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1608462</v>
+        <v>1611140</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1673177</v>
+        <v>1672798</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8528737870327291</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.835275218676235</v>
+        <v>0.8366656855052573</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8688818559387995</v>
+        <v>0.8686851540511611</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>69586</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>54946</v>
+        <v>54765</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>86186</v>
+        <v>84607</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1362836934105568</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1076107726707572</v>
+        <v>0.1072578903372543</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1687948941067447</v>
+        <v>0.1657015793870584</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>199</v>
@@ -3394,19 +3394,19 @@
         <v>213718</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>189094</v>
+        <v>189766</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>241060</v>
+        <v>238091</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2806457750732462</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2483103739269208</v>
+        <v>0.2491926793596975</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3165498426945813</v>
+        <v>0.312650878659949</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>265</v>
@@ -3415,19 +3415,19 @@
         <v>283304</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>253638</v>
+        <v>254147</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>314506</v>
+        <v>313212</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.222702452956055</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1993824635572556</v>
+        <v>0.1997823114142879</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2472302447537874</v>
+        <v>0.2462133318370169</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>441010</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>424410</v>
+        <v>425989</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>455650</v>
+        <v>455831</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8637163065894432</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8312051058932555</v>
+        <v>0.8342984206129416</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8923892273292431</v>
+        <v>0.8927421096627457</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>504</v>
@@ -3465,19 +3465,19 @@
         <v>547804</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>520462</v>
+        <v>523431</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>572428</v>
+        <v>571756</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7193542249267538</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6834501573054187</v>
+        <v>0.687349121340051</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7516896260730793</v>
+        <v>0.7508073206403024</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>925</v>
@@ -3486,19 +3486,19 @@
         <v>988814</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>957612</v>
+        <v>958906</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1018480</v>
+        <v>1017971</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.777297547043945</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7527697552462125</v>
+        <v>0.7537866681629835</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8006175364427444</v>
+        <v>0.8002176885857122</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>12896</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7049</v>
+        <v>6498</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>22547</v>
+        <v>21384</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.048322837017396</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02641408335885043</v>
+        <v>0.02434820368130003</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08448173197032785</v>
+        <v>0.08012609191379777</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>254</v>
@@ -3611,19 +3611,19 @@
         <v>272670</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>245441</v>
+        <v>244339</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>300843</v>
+        <v>305563</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2457926717393117</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.221246928770992</v>
+        <v>0.2202539481692678</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2711880862819619</v>
+        <v>0.2754434513146455</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>266</v>
@@ -3632,19 +3632,19 @@
         <v>285567</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>255796</v>
+        <v>257843</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>317383</v>
+        <v>319200</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2074989214138473</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1858668137595382</v>
+        <v>0.1873543754122517</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2306171601773331</v>
+        <v>0.2319375692478063</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>253986</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>244335</v>
+        <v>245498</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>259833</v>
+        <v>260384</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.951677162982604</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9155182680296721</v>
+        <v>0.9198739080862022</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9735859166411496</v>
+        <v>0.9756517963186999</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>790</v>
@@ -3682,19 +3682,19 @@
         <v>836681</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>808508</v>
+        <v>803788</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>863910</v>
+        <v>865012</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7542073282606883</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7288119137180382</v>
+        <v>0.7245565486853547</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7787530712290081</v>
+        <v>0.7797460518307323</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1043</v>
@@ -3703,19 +3703,19 @@
         <v>1090666</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1058850</v>
+        <v>1057033</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1120437</v>
+        <v>1118390</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7925010785861526</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.769382839822667</v>
+        <v>0.7680624307521937</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8141331862404619</v>
+        <v>0.8126456245877482</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>411325</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>371684</v>
+        <v>372738</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>452134</v>
+        <v>454871</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.120203208328011</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1086189751169637</v>
+        <v>0.1089267567981184</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.132129247287246</v>
+        <v>0.1329290333329045</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>682</v>
@@ -3828,19 +3828,19 @@
         <v>737719</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>688062</v>
+        <v>690027</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>788319</v>
+        <v>788801</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2078007383400934</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.193813523528326</v>
+        <v>0.1943670414356622</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2220539036074173</v>
+        <v>0.2221896371191278</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1057</v>
@@ -3849,19 +3849,19 @@
         <v>1149043</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1081317</v>
+        <v>1085472</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1212029</v>
+        <v>1213162</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1648074299489367</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1550934662141703</v>
+        <v>0.1556894582466121</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1738415267216995</v>
+        <v>0.1740040452896627</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>3010585</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2969776</v>
+        <v>2967039</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3050226</v>
+        <v>3049172</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.879796791671989</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.867870752712754</v>
+        <v>0.8670709666670953</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8913810248830363</v>
+        <v>0.8910732432018815</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2608</v>
@@ -3899,19 +3899,19 @@
         <v>2812406</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2761806</v>
+        <v>2761324</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2862063</v>
+        <v>2860098</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7921992616599066</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7779460963925827</v>
+        <v>0.7778103628808721</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.806186476471674</v>
+        <v>0.8056329585643378</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5438</v>
@@ -3920,19 +3920,19 @@
         <v>5822992</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5760006</v>
+        <v>5758873</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5890718</v>
+        <v>5886563</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8351925700510633</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8261584732783007</v>
+        <v>0.8259959547103374</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.84490653378583</v>
+        <v>0.8443105417533884</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>41327</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>29501</v>
+        <v>30209</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>55420</v>
+        <v>57621</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09631353023864103</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06875264060139517</v>
+        <v>0.07040111218438036</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1291561973743516</v>
+        <v>0.134286885135387</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>37</v>
@@ -4287,19 +4287,19 @@
         <v>42881</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>31192</v>
+        <v>31161</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>57692</v>
+        <v>59423</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.123556640745677</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08987576922566347</v>
+        <v>0.08978690427046246</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1662320347003881</v>
+        <v>0.1712193154825001</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>74</v>
@@ -4308,19 +4308,19 @@
         <v>84208</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>68432</v>
+        <v>67453</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>106189</v>
+        <v>105349</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1084953156247546</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08816899896588601</v>
+        <v>0.0869070231517555</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.136815829351959</v>
+        <v>0.135733882844686</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>387765</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>373672</v>
+        <v>371471</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>399591</v>
+        <v>398883</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9036864697613589</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8708438026256484</v>
+        <v>0.8657131148646129</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9312473593986047</v>
+        <v>0.9295988878156196</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>295</v>
@@ -4358,19 +4358,19 @@
         <v>304174</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>289363</v>
+        <v>287632</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>315863</v>
+        <v>315894</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.876443359254323</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8337679652996119</v>
+        <v>0.8287806845174999</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9101242307743366</v>
+        <v>0.9102130957295376</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>654</v>
@@ -4379,19 +4379,19 @@
         <v>691939</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>669958</v>
+        <v>670798</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>707715</v>
+        <v>708694</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8915046843752454</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.863184170648041</v>
+        <v>0.864266117155314</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.911831001034114</v>
+        <v>0.9130929768482445</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>25325</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>17120</v>
+        <v>16661</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>37230</v>
+        <v>36203</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06713367921516379</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04538485882959618</v>
+        <v>0.04416745557552642</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09869376702827201</v>
+        <v>0.09597120840990528</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>36</v>
@@ -4504,19 +4504,19 @@
         <v>42070</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>30240</v>
+        <v>30060</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>58266</v>
+        <v>55684</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1130078500701958</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08122981401096324</v>
+        <v>0.08074697135817793</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.156514602855462</v>
+        <v>0.149578658856988</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>62</v>
@@ -4525,19 +4525,19 @@
         <v>67394</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>52435</v>
+        <v>52549</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>85923</v>
+        <v>84403</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08991916489705289</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06995961982639343</v>
+        <v>0.07011190338762754</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1146408137680513</v>
+        <v>0.112612306664426</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>351902</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>339997</v>
+        <v>341024</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>360107</v>
+        <v>360566</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9328663207848362</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9013062329717277</v>
+        <v>0.9040287915900946</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9546151411704038</v>
+        <v>0.9558325444244735</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>316</v>
@@ -4575,19 +4575,19 @@
         <v>330203</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>314007</v>
+        <v>316589</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>342033</v>
+        <v>342213</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8869921499298042</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8434853971445377</v>
+        <v>0.8504213411430119</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9187701859890364</v>
+        <v>0.9192530286418221</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>644</v>
@@ -4596,19 +4596,19 @@
         <v>682106</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>663577</v>
+        <v>665097</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>697065</v>
+        <v>696951</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9100808351029471</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8853591862319484</v>
+        <v>0.8873876933355739</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9300403801736065</v>
+        <v>0.9298880966123723</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>53496</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>40145</v>
+        <v>40960</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>67300</v>
+        <v>68010</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1024998169992819</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07691797959078198</v>
+        <v>0.07848024423720712</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1289493631865218</v>
+        <v>0.1303082569257581</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>32</v>
@@ -4721,19 +4721,19 @@
         <v>37120</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>26793</v>
+        <v>26759</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>49432</v>
+        <v>48490</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2234514656634903</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.161282229639158</v>
+        <v>0.1610809649695751</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2975648270654751</v>
+        <v>0.2918916922771557</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>84</v>
@@ -4742,19 +4742,19 @@
         <v>90616</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>74056</v>
+        <v>73432</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>109139</v>
+        <v>109785</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1317029583884093</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1076345297446988</v>
+        <v>0.1067276748280176</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1586235146689413</v>
+        <v>0.1595626352161792</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>468418</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>454614</v>
+        <v>453904</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>481769</v>
+        <v>480954</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8975001830007181</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8710506368134781</v>
+        <v>0.8696917430742416</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9230820204092179</v>
+        <v>0.9215197557627929</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>121</v>
@@ -4792,19 +4792,19 @@
         <v>129003</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>116691</v>
+        <v>117633</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>139330</v>
+        <v>139364</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7765485343365097</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7024351729345252</v>
+        <v>0.7081083077228444</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8387177703608423</v>
+        <v>0.8389190350304249</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>571</v>
@@ -4813,19 +4813,19 @@
         <v>597420</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>578897</v>
+        <v>578251</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>613980</v>
+        <v>614604</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8682970416115907</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8413764853310589</v>
+        <v>0.8404373647838211</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8923654702553014</v>
+        <v>0.8932723251719824</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>136069</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>116088</v>
+        <v>114994</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>160098</v>
+        <v>158777</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1183578459044697</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1009775114693839</v>
+        <v>0.1000266467297659</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1392591833925415</v>
+        <v>0.1381107070985024</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>108</v>
@@ -4938,19 +4938,19 @@
         <v>123784</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>102492</v>
+        <v>102346</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>146529</v>
+        <v>148917</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1498820589147491</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1241012280221199</v>
+        <v>0.1239244972201907</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1774223345030613</v>
+        <v>0.1803144127897792</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>239</v>
@@ -4959,19 +4959,19 @@
         <v>259853</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>227705</v>
+        <v>227120</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>293560</v>
+        <v>292643</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1315367367947513</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1152636989439972</v>
+        <v>0.1149675087938487</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1485994158631791</v>
+        <v>0.1481352540258766</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>1013569</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>989540</v>
+        <v>990861</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1033550</v>
+        <v>1034644</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8816421540955304</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8607408166074586</v>
+        <v>0.8618892929014974</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8990224885306162</v>
+        <v>0.899973353270234</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>690</v>
@@ -5009,19 +5009,19 @@
         <v>702092</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>679347</v>
+        <v>676959</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>723384</v>
+        <v>723530</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.850117941085251</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8225776654969387</v>
+        <v>0.8196855872102199</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.87589877197788</v>
+        <v>0.8760755027798091</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1662</v>
@@ -5030,19 +5030,19 @@
         <v>1715661</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1681954</v>
+        <v>1682871</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1747809</v>
+        <v>1748394</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8684632632052487</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8514005841368211</v>
+        <v>0.8518647459741233</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8847363010560029</v>
+        <v>0.8850324912061514</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>91344</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>74680</v>
+        <v>75852</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>109404</v>
+        <v>109997</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1471608479622988</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1203141359814589</v>
+        <v>0.122202632683138</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.176257040846161</v>
+        <v>0.177211948727917</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>164</v>
@@ -5155,19 +5155,19 @@
         <v>182181</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>157157</v>
+        <v>161207</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>207136</v>
+        <v>208712</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2467762086689623</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2128799342780491</v>
+        <v>0.2183650603126733</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2805799824214703</v>
+        <v>0.2827143893781297</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>257</v>
@@ -5176,19 +5176,19 @@
         <v>273525</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>244140</v>
+        <v>247138</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>304997</v>
+        <v>308325</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2012764921717403</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1796532887181732</v>
+        <v>0.1818591903225828</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2244358326226762</v>
+        <v>0.2268844825717405</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>529362</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>511302</v>
+        <v>510709</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>546026</v>
+        <v>544854</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8528391520377012</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.823742959153839</v>
+        <v>0.8227880512720832</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8796858640185411</v>
+        <v>0.877797367316862</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>535</v>
@@ -5226,19 +5226,19 @@
         <v>556063</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>531108</v>
+        <v>529532</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>581087</v>
+        <v>577037</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7532237913310378</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7194200175785298</v>
+        <v>0.7172856106218701</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7871200657219509</v>
+        <v>0.7816349396873267</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1039</v>
@@ -5247,19 +5247,19 @@
         <v>1085425</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1053953</v>
+        <v>1050625</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1114810</v>
+        <v>1111812</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7987235078282597</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7755641673773238</v>
+        <v>0.7731155174282595</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8203467112818268</v>
+        <v>0.8181408096774172</v>
       </c>
     </row>
     <row r="18">
@@ -5351,19 +5351,19 @@
         <v>8139</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3635</v>
+        <v>3543</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>16797</v>
+        <v>15713</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0283439895091051</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01265803411412098</v>
+        <v>0.01233777941921065</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05849743892642022</v>
+        <v>0.05472015372604747</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>216</v>
@@ -5372,19 +5372,19 @@
         <v>257970</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>229806</v>
+        <v>227196</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>289064</v>
+        <v>290437</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2384140103757754</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2123849240032231</v>
+        <v>0.2099732295907865</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2671509194965812</v>
+        <v>0.2684202487172028</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>223</v>
@@ -5393,19 +5393,19 @@
         <v>266109</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>232802</v>
+        <v>231980</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>296799</v>
+        <v>299095</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1943576936793313</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1700313614106297</v>
+        <v>0.1694314317532331</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.21677302191692</v>
+        <v>0.218449913942863</v>
       </c>
     </row>
     <row r="20">
@@ -5422,19 +5422,19 @@
         <v>279006</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>270348</v>
+        <v>271432</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>283510</v>
+        <v>283602</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9716560104908949</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9415025610735798</v>
+        <v>0.9452798462739525</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9873419658858791</v>
+        <v>0.9876622205807893</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>776</v>
@@ -5443,19 +5443,19 @@
         <v>824055</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>792961</v>
+        <v>791588</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>852219</v>
+        <v>854829</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7615859896242245</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7328490805034188</v>
+        <v>0.7315797512827973</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7876150759967769</v>
+        <v>0.7900267704092137</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1041</v>
@@ -5464,19 +5464,19 @@
         <v>1103061</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1072371</v>
+        <v>1070075</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1136368</v>
+        <v>1137190</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8056423063206687</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.783226978083079</v>
+        <v>0.7815500860571372</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8299686385893703</v>
+        <v>0.8305685682467669</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>355699</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>323225</v>
+        <v>319093</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>395859</v>
+        <v>393560</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1050586003753929</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09546713913800245</v>
+        <v>0.09424653685296287</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1169200227501761</v>
+        <v>0.1162411821065538</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>593</v>
@@ -5589,19 +5589,19 @@
         <v>686006</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>635637</v>
+        <v>639727</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>737659</v>
+        <v>737678</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1942481787751402</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1799856499186003</v>
+        <v>0.1811438998423274</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2088740766240865</v>
+        <v>0.2088793707290069</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>939</v>
@@ -5610,19 +5610,19 @@
         <v>1041705</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>979303</v>
+        <v>979069</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1105785</v>
+        <v>1102083</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1505938128455395</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1415726164981125</v>
+        <v>0.1415388049180428</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1598574463214507</v>
+        <v>0.1593222831752366</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>3030023</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2989863</v>
+        <v>2992162</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3062497</v>
+        <v>3066629</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8949413996246072</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8830799772498239</v>
+        <v>0.8837588178934461</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9045328608619976</v>
+        <v>0.9057534631470371</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2733</v>
@@ -5660,19 +5660,19 @@
         <v>2845590</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2793937</v>
+        <v>2793918</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2895959</v>
+        <v>2891869</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8057518212248598</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7911259233759131</v>
+        <v>0.7911206292709931</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8200143500813996</v>
+        <v>0.8188561001576725</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5611</v>
@@ -5681,19 +5681,19 @@
         <v>5875613</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5811533</v>
+        <v>5815235</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5938015</v>
+        <v>5938249</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8494061871544605</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8401425536785493</v>
+        <v>0.8406777168247636</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8584273835018875</v>
+        <v>0.8584611950819573</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>44380</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>33454</v>
+        <v>33232</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>59737</v>
+        <v>59358</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08059993710321205</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06075701048527737</v>
+        <v>0.06035456626258886</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1084913047466007</v>
+        <v>0.1078020464724443</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>94</v>
@@ -6048,19 +6048,19 @@
         <v>64962</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>52420</v>
+        <v>51044</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>80016</v>
+        <v>77267</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1330071538713498</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1073273607738328</v>
+        <v>0.1045106010283231</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1638298197241702</v>
+        <v>0.1582010702560904</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>145</v>
@@ -6069,19 +6069,19 @@
         <v>109342</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>90075</v>
+        <v>92161</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>125722</v>
+        <v>126915</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1052347176724326</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08669161107795373</v>
+        <v>0.08869921242514593</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1209993380353311</v>
+        <v>0.1221475729837682</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>506238</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>490881</v>
+        <v>491260</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>517164</v>
+        <v>517386</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.919400062896788</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8915086952533994</v>
+        <v>0.8921979535275557</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9392429895147233</v>
+        <v>0.9396454337374113</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>592</v>
@@ -6119,19 +6119,19 @@
         <v>423449</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>408395</v>
+        <v>411144</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>435991</v>
+        <v>437367</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8669928461286501</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8361701802758295</v>
+        <v>0.8417989297439096</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8926726392261665</v>
+        <v>0.8954893989716771</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1095</v>
@@ -6140,19 +6140,19 @@
         <v>929687</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>913307</v>
+        <v>912114</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>948954</v>
+        <v>946868</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8947652823275675</v>
+        <v>0.8947652823275674</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8790006619646688</v>
+        <v>0.8778524270162317</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9133083889220464</v>
+        <v>0.9113007875748539</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>49366</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>37960</v>
+        <v>36641</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>62452</v>
+        <v>63298</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1021631248382352</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07855817936693189</v>
+        <v>0.07582723339920316</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1292440437646505</v>
+        <v>0.1309947154867337</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>96</v>
@@ -6265,19 +6265,19 @@
         <v>63172</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>52432</v>
+        <v>52993</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>76176</v>
+        <v>76943</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1492928050899002</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1239104113609157</v>
+        <v>0.1252361113616835</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1800239245302907</v>
+        <v>0.1818369529783634</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>148</v>
@@ -6286,19 +6286,19 @@
         <v>112539</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>95710</v>
+        <v>95083</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>131349</v>
+        <v>131661</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1241661891922807</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1055990080989919</v>
+        <v>0.104907054637158</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.144920420734929</v>
+        <v>0.1452644667557272</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>433846</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>420760</v>
+        <v>419914</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>445252</v>
+        <v>446571</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8978368751617647</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8707559562353496</v>
+        <v>0.8690052845132669</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9214418206330682</v>
+        <v>0.9241727666007969</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>494</v>
@@ -6336,19 +6336,19 @@
         <v>359971</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>346967</v>
+        <v>346200</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>370711</v>
+        <v>370150</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8507071949100997</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8199760754697093</v>
+        <v>0.8181630470216364</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8760895886390844</v>
+        <v>0.8747638886383161</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>923</v>
@@ -6357,19 +6357,19 @@
         <v>793816</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>775006</v>
+        <v>774694</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>810645</v>
+        <v>811272</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8758338108077194</v>
+        <v>0.8758338108077195</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8550795792650711</v>
+        <v>0.8547355332442726</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.894400991901008</v>
+        <v>0.8950929453628419</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>71598</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>56094</v>
+        <v>56656</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>86699</v>
+        <v>88758</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.151974742108776</v>
+        <v>0.1519747421087759</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1190649983105486</v>
+        <v>0.1202592034267358</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1840287154463647</v>
+        <v>0.1883977535227802</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>72</v>
@@ -6482,19 +6482,19 @@
         <v>46695</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>37527</v>
+        <v>37098</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>58926</v>
+        <v>56821</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2490449215780516</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2001453394979554</v>
+        <v>0.1978593821937605</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3142793391242186</v>
+        <v>0.3030485671681641</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>149</v>
@@ -6503,19 +6503,19 @@
         <v>118293</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>101472</v>
+        <v>99591</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>137556</v>
+        <v>136575</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1796090283028388</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1540684670147584</v>
+        <v>0.1512131483244433</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2088562060095159</v>
+        <v>0.2073673341537225</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>399521</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>384420</v>
+        <v>382361</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>415025</v>
+        <v>414463</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8480252578912242</v>
+        <v>0.8480252578912241</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8159712845536353</v>
+        <v>0.8116022464772196</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8809350016894514</v>
+        <v>0.8797407965732641</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>217</v>
@@ -6553,19 +6553,19 @@
         <v>140802</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>128571</v>
+        <v>130676</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>149970</v>
+        <v>150399</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7509550784219483</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6857206608757815</v>
+        <v>0.6969514328318358</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7998546605020447</v>
+        <v>0.8021406178062392</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>627</v>
@@ -6574,19 +6574,19 @@
         <v>540323</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>521060</v>
+        <v>522041</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>557144</v>
+        <v>559025</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.820390971697161</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.791143793990484</v>
+        <v>0.7926326658462779</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8459315329852415</v>
+        <v>0.848786851675557</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>196465</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>171725</v>
+        <v>173612</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>223189</v>
+        <v>223892</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1736694916540233</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.151800108250735</v>
+        <v>0.1534682372274099</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1972926405125685</v>
+        <v>0.1979145189152126</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>235</v>
@@ -6699,19 +6699,19 @@
         <v>150761</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>132799</v>
+        <v>132103</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>170405</v>
+        <v>169532</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1751741781596303</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1543035121369057</v>
+        <v>0.1534951507144398</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1980002623551595</v>
+        <v>0.196985374172533</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>450</v>
@@ -6720,19 +6720,19 @@
         <v>347225</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>317837</v>
+        <v>313559</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>382529</v>
+        <v>378346</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1743196191681636</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1595654841425314</v>
+        <v>0.1574179490795393</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1920432490795421</v>
+        <v>0.1899435230487962</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>934792</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>908068</v>
+        <v>907365</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>959532</v>
+        <v>957645</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8263305083459769</v>
+        <v>0.8263305083459765</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8027073594874315</v>
+        <v>0.8020854810847874</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8481998917492651</v>
+        <v>0.8465317627725901</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>994</v>
@@ -6770,19 +6770,19 @@
         <v>709871</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>690227</v>
+        <v>691100</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>727833</v>
+        <v>728529</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8248258218403696</v>
+        <v>0.8248258218403697</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8019997376448406</v>
+        <v>0.803014625827467</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8456964878630944</v>
+        <v>0.8465048492855602</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1896</v>
@@ -6791,19 +6791,19 @@
         <v>1644664</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1609360</v>
+        <v>1613543</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1674052</v>
+        <v>1678330</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8256803808318364</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8079567509204582</v>
+        <v>0.8100564769512038</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8404345158574686</v>
+        <v>0.8425820509204607</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>99011</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>82397</v>
+        <v>81122</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>118480</v>
+        <v>116557</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1746654684755683</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1453575276016003</v>
+        <v>0.1431071623866966</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2090104342853187</v>
+        <v>0.2056192419728556</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>390</v>
@@ -6916,19 +6916,19 @@
         <v>224197</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>204587</v>
+        <v>203356</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>246507</v>
+        <v>244986</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2702014073114028</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2465671026748685</v>
+        <v>0.2450834990944562</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2970892261242829</v>
+        <v>0.2952566247135606</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>501</v>
@@ -6937,19 +6937,19 @@
         <v>323208</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>294508</v>
+        <v>296965</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>351824</v>
+        <v>352100</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2314247637546713</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2108753179436182</v>
+        <v>0.212634452623314</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2519144976783354</v>
+        <v>0.2521125477293411</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>467849</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>448380</v>
+        <v>450303</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>484463</v>
+        <v>485738</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8253345315244317</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7909895657146815</v>
+        <v>0.7943807580271445</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8546424723983997</v>
+        <v>0.8568928376133034</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>898</v>
@@ -6987,19 +6987,19 @@
         <v>605543</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>583233</v>
+        <v>584754</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>625153</v>
+        <v>626384</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.7297985926885971</v>
+        <v>0.7297985926885974</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7029107738757165</v>
+        <v>0.7047433752864395</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7534328973251307</v>
+        <v>0.754916500905544</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1333</v>
@@ -7008,19 +7008,19 @@
         <v>1073392</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1044776</v>
+        <v>1044500</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1102092</v>
+        <v>1099635</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7685752362453286</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7480855023216646</v>
+        <v>0.7478874522706589</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7891246820563819</v>
+        <v>0.787365547376686</v>
       </c>
     </row>
     <row r="18">
@@ -7112,19 +7112,19 @@
         <v>5940</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2381</v>
+        <v>2617</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11553</v>
+        <v>12272</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02503799059768688</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01003550161984455</v>
+        <v>0.01103295455976071</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04870029396164712</v>
+        <v>0.05173130528046237</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>355</v>
@@ -7133,19 +7133,19 @@
         <v>208824</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>187294</v>
+        <v>189133</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>231076</v>
+        <v>231239</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2473394205287582</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2218382520906136</v>
+        <v>0.2240167230335131</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2736959326091333</v>
+        <v>0.273888374020829</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>363</v>
@@ -7154,19 +7154,19 @@
         <v>214764</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>193647</v>
+        <v>191207</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>237919</v>
+        <v>237727</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1985778471369528</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1790521979560125</v>
+        <v>0.1767969249896584</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2199878028490811</v>
+        <v>0.2198103333712802</v>
       </c>
     </row>
     <row r="20">
@@ -7183,19 +7183,19 @@
         <v>231288</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>225675</v>
+        <v>224956</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>234847</v>
+        <v>234611</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9749620094023133</v>
+        <v>0.9749620094023131</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9512997060383528</v>
+        <v>0.9482686947195376</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9899644983801554</v>
+        <v>0.9889670454402393</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>804</v>
@@ -7204,19 +7204,19 @@
         <v>635457</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>613205</v>
+        <v>613042</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>656987</v>
+        <v>655148</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7526605794712417</v>
+        <v>0.7526605794712418</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7263040673908666</v>
+        <v>0.7261116259791709</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7781617479093864</v>
+        <v>0.7759832769664867</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>908</v>
@@ -7225,19 +7225,19 @@
         <v>866745</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>843590</v>
+        <v>843782</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>887862</v>
+        <v>890302</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8014221528630474</v>
+        <v>0.8014221528630472</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7800121971509186</v>
+        <v>0.7801896666287197</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8209478020439874</v>
+        <v>0.8232030750103418</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>466760</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>431405</v>
+        <v>426797</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>516526</v>
+        <v>508042</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1356743966737599</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1253978170416279</v>
+        <v>0.1240583274910781</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1501400168669663</v>
+        <v>0.1476740426588826</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1242</v>
@@ -7350,19 +7350,19 @@
         <v>758611</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>716602</v>
+        <v>715018</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>795181</v>
+        <v>798069</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2087707143636812</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1972096620414703</v>
+        <v>0.1967738318056702</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2188348770606542</v>
+        <v>0.2196294917692671</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1756</v>
@@ -7371,19 +7371,19 @@
         <v>1225371</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1168827</v>
+        <v>1165838</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1282848</v>
+        <v>1286749</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1732218241950187</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1652286029509477</v>
+        <v>0.1648061581310103</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1813470248717335</v>
+        <v>0.1818983859063867</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>2973533</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2923767</v>
+        <v>2932251</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3008888</v>
+        <v>3013496</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.86432560332624</v>
+        <v>0.8643256033262403</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8498599831330322</v>
+        <v>0.8523259573411176</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.874602182958372</v>
+        <v>0.8759416725089219</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3999</v>
@@ -7421,19 +7421,19 @@
         <v>2875093</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2838523</v>
+        <v>2835635</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2917102</v>
+        <v>2918686</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7912292856363187</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7811651229393455</v>
+        <v>0.780370508230733</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8027903379585294</v>
+        <v>0.8032261681943302</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6782</v>
@@ -7442,19 +7442,19 @@
         <v>5848626</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5791149</v>
+        <v>5787248</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5905170</v>
+        <v>5908159</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8267781758049811</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8186529751282664</v>
+        <v>0.8181016140936131</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8347713970490522</v>
+        <v>0.8351938418689896</v>
       </c>
     </row>
     <row r="24">
